--- a/UNIM2F.ECO.xlsx
+++ b/UNIM2F.ECO.xlsx
@@ -41,12 +41,6 @@
     <t>Rafael Send</t>
   </si>
   <si>
-    <t>UNIM2F.v1.1</t>
-  </si>
-  <si>
-    <t>UNIM2F.v1.0</t>
-  </si>
-  <si>
     <t>Naming consistency</t>
   </si>
   <si>
@@ -60,6 +54,12 @@
   </si>
   <si>
     <t>Not tracked, not in Git</t>
+  </si>
+  <si>
+    <t>UNIM2F.v1.0-X</t>
+  </si>
+  <si>
+    <t>UNIM2F.v1.1-X</t>
   </si>
 </sst>
 </file>
@@ -411,12 +411,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
@@ -442,33 +442,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>41942</v>
